--- a/results/mp/logistic/home-spam/confidence/168/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/168/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,58 +43,64 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>filters</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>not</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>grind</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>lid</t>
   </si>
   <si>
     <t>filter</t>
@@ -103,112 +109,133 @@
     <t>plastic</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>after</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>doesn</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>did</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>t</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>that</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -569,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9203539823008849</v>
+        <v>0.9380530973451328</v>
       </c>
       <c r="C3">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K3">
-        <v>0.8478260869565217</v>
+        <v>0.8203125</v>
       </c>
       <c r="L3">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="M3">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K4">
-        <v>0.8172043010752689</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L4">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M4">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.898989898989899</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K5">
-        <v>0.796875</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="L5">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="M5">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8679245283018868</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>0.7254237288135593</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L6">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M6">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8559322033898306</v>
+        <v>0.86</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K7">
-        <v>0.6965944272445821</v>
+        <v>0.5928792569659442</v>
       </c>
       <c r="L7">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="M7">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>196</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,16 +936,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K8">
-        <v>0.5584415584415584</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L8">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7954545454545454</v>
+        <v>0.7783783783783784</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K9">
-        <v>0.5064935064935064</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7945945945945946</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K10">
-        <v>0.4473684210526316</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>42</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7884615384615384</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K11">
-        <v>0.3714285714285714</v>
+        <v>0.1637239165329053</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>110</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7808219178082192</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,16 +1136,16 @@
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K12">
-        <v>0.3153153153153153</v>
+        <v>0.05342465753424658</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>76</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7794117647058824</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,31 +1183,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K13">
-        <v>0.2562248995983936</v>
+        <v>0.02023121387283237</v>
       </c>
       <c r="L13">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>926</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7169811320754716</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,31 +1233,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14">
-        <v>0.1465753424657534</v>
-      </c>
-      <c r="L14">
-        <v>107</v>
-      </c>
-      <c r="M14">
-        <v>107</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>623</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6777777777777778</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="C15">
-        <v>61</v>
+        <v>1143</v>
       </c>
       <c r="D15">
-        <v>61</v>
+        <v>1143</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>29</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.674074074074074</v>
+        <v>0.5754716981132075</v>
       </c>
       <c r="C16">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1290,13 +1293,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6564102564102564</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C17">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1316,13 +1319,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.647887323943662</v>
+        <v>0.5407407407407407</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1334,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1342,13 +1345,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6415094339622641</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C19">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1360,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1368,13 +1371,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6153846153846154</v>
+        <v>0.5025641025641026</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1386,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1394,13 +1397,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6046511627906976</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="C21">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1412,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1420,13 +1423,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5747126436781609</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1438,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1446,25 +1449,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5510204081632653</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="C23">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1472,13 +1475,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5221238938053098</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C24">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1490,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1498,13 +1501,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4807692307692308</v>
+        <v>0.3986486486486486</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1516,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1524,13 +1527,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4563106796116505</v>
+        <v>0.3495145631067961</v>
       </c>
       <c r="C26">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1542,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1550,13 +1553,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4166666666666667</v>
+        <v>0.3351351351351352</v>
       </c>
       <c r="C27">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="D27">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1568,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>91</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1576,13 +1579,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3854748603351955</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C28">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D28">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1602,13 +1605,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.33</v>
+        <v>0.2825278810408922</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1620,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>67</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1628,13 +1631,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3298969072164948</v>
+        <v>0.2755555555555556</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1646,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>65</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1654,13 +1657,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2857142857142857</v>
+        <v>0.2723492723492724</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>393</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>393</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1672,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>90</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1680,13 +1683,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.265</v>
+        <v>0.2569832402234637</v>
       </c>
       <c r="C32">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D32">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1698,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1706,13 +1709,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2620689655172414</v>
+        <v>0.1961538461538462</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1724,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>107</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1732,13 +1735,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.219047619047619</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D34">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1750,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>164</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1758,25 +1761,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2189189189189189</v>
+        <v>0.1386666666666667</v>
       </c>
       <c r="C35">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="D35">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>289</v>
+        <v>969</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1784,13 +1787,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1938775510204082</v>
+        <v>0.06236559139784946</v>
       </c>
       <c r="C36">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1802,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>237</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1810,13 +1813,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1920529801324503</v>
+        <v>0.0580046403712297</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1828,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>122</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1836,13 +1839,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1774193548387097</v>
+        <v>0.05783582089552239</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1854,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>153</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1862,13 +1865,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1741573033707865</v>
+        <v>0.05741127348643006</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1880,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>147</v>
+        <v>903</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1888,25 +1891,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1666666666666667</v>
+        <v>0.05493562231759656</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>165</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1914,13 +1917,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1404682274247492</v>
+        <v>0.04823989569752282</v>
       </c>
       <c r="C41">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1932,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>257</v>
+        <v>730</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1940,25 +1943,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1374149659863945</v>
+        <v>0.0446521287642783</v>
       </c>
       <c r="C42">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="D42">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>634</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1966,13 +1969,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1173402868318123</v>
+        <v>0.04353741496598639</v>
       </c>
       <c r="C43">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1984,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>677</v>
+        <v>703</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1992,13 +1995,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08780487804878048</v>
+        <v>0.03897550111358575</v>
       </c>
       <c r="C44">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2010,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>374</v>
+        <v>863</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2018,25 +2021,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.07633587786259542</v>
+        <v>0.03732394366197183</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D45">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F45">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>363</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2044,25 +2047,285 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02519548218940052</v>
+        <v>0.03682934222491664</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="E46">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="F46">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1122</v>
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.03300645778521884</v>
+      </c>
+      <c r="C47">
+        <v>138</v>
+      </c>
+      <c r="D47">
+        <v>140</v>
+      </c>
+      <c r="E47">
+        <v>0.01</v>
+      </c>
+      <c r="F47">
+        <v>0.99</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.02909298345693098</v>
+      </c>
+      <c r="C48">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>53</v>
+      </c>
+      <c r="E48">
+        <v>0.04</v>
+      </c>
+      <c r="F48">
+        <v>0.96</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.02824368613842298</v>
+      </c>
+      <c r="C49">
+        <v>293</v>
+      </c>
+      <c r="D49">
+        <v>301</v>
+      </c>
+      <c r="E49">
+        <v>0.03</v>
+      </c>
+      <c r="F49">
+        <v>0.97</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>10081</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.02180376610505451</v>
+      </c>
+      <c r="C50">
+        <v>66</v>
+      </c>
+      <c r="D50">
+        <v>69</v>
+      </c>
+      <c r="E50">
+        <v>0.04</v>
+      </c>
+      <c r="F50">
+        <v>0.96</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.02163275817666753</v>
+      </c>
+      <c r="C51">
+        <v>84</v>
+      </c>
+      <c r="D51">
+        <v>88</v>
+      </c>
+      <c r="E51">
+        <v>0.05</v>
+      </c>
+      <c r="F51">
+        <v>0.95</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.01780645161290323</v>
+      </c>
+      <c r="C52">
+        <v>69</v>
+      </c>
+      <c r="D52">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>0.04</v>
+      </c>
+      <c r="F52">
+        <v>0.96</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.01447906830343091</v>
+      </c>
+      <c r="C53">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>54</v>
+      </c>
+      <c r="E53">
+        <v>0.15</v>
+      </c>
+      <c r="F53">
+        <v>0.85</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.01295620437956204</v>
+      </c>
+      <c r="C54">
+        <v>71</v>
+      </c>
+      <c r="D54">
+        <v>80</v>
+      </c>
+      <c r="E54">
+        <v>0.11</v>
+      </c>
+      <c r="F54">
+        <v>0.89</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.01099303774276292</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>31</v>
+      </c>
+      <c r="E55">
+        <v>0.03</v>
+      </c>
+      <c r="F55">
+        <v>0.97</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.006939625260235947</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+      <c r="D56">
+        <v>45</v>
+      </c>
+      <c r="E56">
+        <v>0.33</v>
+      </c>
+      <c r="F56">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>4293</v>
       </c>
     </row>
   </sheetData>
